--- a/EDA_Entrega/data/correlation_age.xlsx
+++ b/EDA_Entrega/data/correlation_age.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>P_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Regression_Coeff</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Intercept</t>
         </is>
@@ -472,12 +477,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.6523945693291194</v>
+        <v>-0.6523945693290407</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>-17484625.49558008</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1508329983.989628</v>
       </c>
     </row>
@@ -493,12 +501,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.6523945652110594</v>
+        <v>-0.6523945652109262</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>-17484.62551918392</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1508329.969004825</v>
       </c>
     </row>
@@ -514,12 +525,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.0701895289062895</v>
+        <v>-0.07018952890627816</v>
       </c>
       <c r="D4" t="n">
+        <v>2.14821876789793e-106</v>
+      </c>
+      <c r="E4" t="n">
         <v>-0.7191622124632536</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>243.0918139402189</v>
       </c>
     </row>
@@ -535,12 +549,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04309950866015081</v>
+        <v>0.0430995086601312</v>
       </c>
       <c r="D5" t="n">
+        <v>9.946248209599814e-36</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.0002568131515326575</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.03599280899166286</v>
       </c>
     </row>
@@ -556,12 +573,15 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.05736886942468032</v>
+        <v>0.05736886942470723</v>
       </c>
       <c r="D6" t="n">
+        <v>5.368577163097154e-62</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.0008890961511445253</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.151296738811302</v>
       </c>
     </row>
@@ -577,12 +597,15 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.1159451851931057</v>
+        <v>-0.1159451851930724</v>
       </c>
       <c r="D7" t="n">
+        <v>7.190491577743289e-255</v>
+      </c>
+      <c r="E7" t="n">
         <v>-0.003641993860128246</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>4.194863761949366</v>
       </c>
     </row>
@@ -598,12 +621,15 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.01686377094483132</v>
+        <v>-0.01686377094481424</v>
       </c>
       <c r="D8" t="n">
+        <v>7.745192264300575e-07</v>
+      </c>
+      <c r="E8" t="n">
         <v>-0.04926242159080697</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>84.49421438849875</v>
       </c>
     </row>
@@ -619,12 +645,15 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1874970166510933</v>
+        <v>-0.1874970166510961</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>-0.2605133101442448</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>38.92666870331953</v>
       </c>
     </row>
@@ -640,12 +669,15 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.02530451109250448</v>
+        <v>-0.02530451109250649</v>
       </c>
       <c r="D10" t="n">
+        <v>2.406113945004259e-13</v>
+      </c>
+      <c r="E10" t="n">
         <v>-0.005909841817531088</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.457865344533552</v>
       </c>
     </row>
@@ -661,12 +693,15 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.08938098855360896</v>
+        <v>0.08938098855366459</v>
       </c>
       <c r="D11" t="n">
+        <v>4.192142674705591e-148</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.001918647912922558</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.4353348821980542</v>
       </c>
     </row>
@@ -682,12 +717,15 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01831216394647152</v>
+        <v>0.01831216394648067</v>
       </c>
       <c r="D12" t="n">
+        <v>1.162520176440075e-07</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.00269325672501349</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>3.752454922279663</v>
       </c>
     </row>
@@ -703,12 +741,15 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.0802484314136742</v>
+        <v>-0.08024843141367793</v>
       </c>
       <c r="D13" t="n">
+        <v>1.240456543100859e-121</v>
+      </c>
+      <c r="E13" t="n">
         <v>-0.1116639078379608</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>30.4843653142109</v>
       </c>
     </row>
@@ -724,12 +765,15 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.04817581995443172</v>
+        <v>0.04817581995442959</v>
       </c>
       <c r="D14" t="n">
+        <v>3.219166311807905e-44</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.003032260256027805</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.6715323322343073</v>
       </c>
     </row>
@@ -745,12 +789,15 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.07831190487239126</v>
+        <v>0.07831190487239116</v>
       </c>
       <c r="D15" t="n">
+        <v>1.142312394381606e-116</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.002046064172654021</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3302653209912884</v>
       </c>
     </row>
@@ -766,12 +813,15 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2294512295553806</v>
+        <v>0.229451229555406</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.1525224896030667</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>7.186145442850533</v>
       </c>
     </row>
@@ -787,12 +837,15 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.00852218982087569</v>
+        <v>0.008522189821040358</v>
       </c>
       <c r="D17" t="n">
+        <v>0.01253891247277357</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.0003232306405890528</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>9.279272598455384</v>
       </c>
     </row>
@@ -808,12 +861,15 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.118737335145252</v>
+        <v>-0.1187373351452163</v>
       </c>
       <c r="D18" t="n">
+        <v>3.182696155657126e-267</v>
+      </c>
+      <c r="E18" t="n">
         <v>-0.4755301333373637</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>220.2487897961205</v>
       </c>
     </row>
@@ -829,12 +885,15 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.02535777884441689</v>
+        <v>-0.02535777884451013</v>
       </c>
       <c r="D19" t="n">
+        <v>1.053714872950092e-13</v>
+      </c>
+      <c r="E19" t="n">
         <v>-0.007596687884557135</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>101.3499256114259</v>
       </c>
     </row>
@@ -850,12 +909,15 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.04830427241907835</v>
+        <v>-0.04830427241906615</v>
       </c>
       <c r="D20" t="n">
+        <v>1.549831178547555e-45</v>
+      </c>
+      <c r="E20" t="n">
         <v>-1.80213959633119</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>445.7382633703409</v>
       </c>
     </row>
@@ -871,12 +933,15 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.1025701500988604</v>
+        <v>0.1025701500988435</v>
       </c>
       <c r="D21" t="n">
+        <v>2.359960281849825e-199</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.02569510445624104</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>22.28509031452422</v>
       </c>
     </row>
@@ -892,12 +957,15 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.07037657040716845</v>
+        <v>0.07037657040717514</v>
       </c>
       <c r="D22" t="n">
+        <v>8.085896830570671e-95</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.0040646476822532</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.6820793979529491</v>
       </c>
     </row>
@@ -913,12 +981,15 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0269458438309817</v>
+        <v>0.02694584383098457</v>
       </c>
       <c r="D23" t="n">
+        <v>2.835902695116872e-15</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.02622125546727437</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>2.827386688173469</v>
       </c>
     </row>
@@ -934,12 +1005,15 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.2206989617869667</v>
+        <v>0.2206989617869601</v>
       </c>
       <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.01160232834547484</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.3603883750601158</v>
       </c>
     </row>
@@ -955,12 +1029,15 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.3111428788292461</v>
+        <v>-0.3111428788292814</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
         <v>-0.06991556070230288</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>7.254936329200418</v>
       </c>
     </row>
@@ -976,12 +1053,15 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.08863515095598652</v>
+        <v>0.08863515095600906</v>
       </c>
       <c r="D26" t="n">
+        <v>1.147747199452427e-145</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.01840005754103339</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>1.890502245785028</v>
       </c>
     </row>
@@ -997,12 +1077,15 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.0260539955885278</v>
+        <v>-0.02605399558852478</v>
       </c>
       <c r="D27" t="n">
+        <v>2.317327288117573e-14</v>
+      </c>
+      <c r="E27" t="n">
         <v>-0.4608648594195816</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>183.2069518992666</v>
       </c>
     </row>
@@ -1018,12 +1101,15 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.007684066566074478</v>
+        <v>-0.007684066566076274</v>
       </c>
       <c r="D28" t="n">
+        <v>0.02449549814280541</v>
+      </c>
+      <c r="E28" t="n">
         <v>-0.03296005065052313</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>112.9837198176539</v>
       </c>
     </row>
@@ -1039,12 +1125,15 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.1051581597648286</v>
+        <v>-0.1051581597648168</v>
       </c>
       <c r="D29" t="n">
+        <v>2.709569617295437e-205</v>
+      </c>
+      <c r="E29" t="n">
         <v>-0.04370386791931707</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>44.6938342528765</v>
       </c>
     </row>
@@ -1060,12 +1149,15 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02322350769145824</v>
+        <v>0.02322350769145837</v>
       </c>
       <c r="D30" t="n">
+        <v>9.88551439770854e-12</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.04683226568040011</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>53.51795924393411</v>
       </c>
     </row>
@@ -1081,12 +1173,15 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.1275399632534831</v>
+        <v>-0.1275399632534884</v>
       </c>
       <c r="D31" t="n">
+        <v>6.790372571639444e-302</v>
+      </c>
+      <c r="E31" t="n">
         <v>-0.01848871788029567</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>14.91188049917232</v>
       </c>
     </row>
@@ -1102,12 +1197,15 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.07032423762316671</v>
+        <v>0.07032423762311937</v>
       </c>
       <c r="D32" t="n">
+        <v>2.36122244029947e-94</v>
+      </c>
+      <c r="E32" t="n">
         <v>0.002993857523620317</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>3.985948701936558</v>
       </c>
     </row>
@@ -1123,12 +1221,15 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.1158360778275899</v>
+        <v>-0.1158360778275823</v>
       </c>
       <c r="D33" t="n">
+        <v>5.706324661318072e-248</v>
+      </c>
+      <c r="E33" t="n">
         <v>-0.3999590130048327</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>129.0101518644771</v>
       </c>
     </row>
@@ -1144,12 +1245,15 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.160323409526546</v>
+        <v>-0.1603234095265728</v>
       </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
         <v>-0.1451639301654431</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>40.04481560114613</v>
       </c>
     </row>
@@ -1165,12 +1269,15 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0971439742396147</v>
+        <v>0.09714397423951893</v>
       </c>
       <c r="D35" t="n">
+        <v>8.151850438365385e-175</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.02088141712063053</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>29.04084672099285</v>
       </c>
     </row>
@@ -1186,12 +1293,15 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.07918357871245343</v>
+        <v>-0.07918357871249634</v>
       </c>
       <c r="D36" t="n">
+        <v>4.466125442134596e-116</v>
+      </c>
+      <c r="E36" t="n">
         <v>-0.009593572789385179</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>33.41294930160355</v>
       </c>
     </row>
@@ -1207,12 +1317,15 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.1568713196968183</v>
+        <v>0.1568713196967891</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
         <v>0.1011345240908624</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>86.21896211899673</v>
       </c>
     </row>
@@ -1228,12 +1341,15 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.1393656234717368</v>
+        <v>0.1393656234717869</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.03256128823832806</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>6.214193082080891</v>
       </c>
     </row>
@@ -1249,12 +1365,15 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.00712052028321718</v>
+        <v>0.007120520283228886</v>
       </c>
       <c r="D39" t="n">
+        <v>0.03997300959411033</v>
+      </c>
+      <c r="E39" t="n">
         <v>0.0007036583785151464</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>11.195526743568</v>
       </c>
     </row>
@@ -1270,12 +1389,15 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.01812443221475208</v>
+        <v>0.01812443221474401</v>
       </c>
       <c r="D40" t="n">
+        <v>1.078272097299766e-07</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.004938951198153568</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>139.1493831738772</v>
       </c>
     </row>
@@ -1291,12 +1413,15 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.09422083135797532</v>
+        <v>0.09422083135797171</v>
       </c>
       <c r="D41" t="n">
+        <v>2.155451138901922e-164</v>
+      </c>
+      <c r="E41" t="n">
         <v>0.09107784055047838</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>51.19178365452832</v>
       </c>
     </row>
@@ -1312,12 +1437,15 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.07549683813752665</v>
+        <v>0.0754968381375203</v>
       </c>
       <c r="D42" t="n">
+        <v>4.095287493354855e-106</v>
+      </c>
+      <c r="E42" t="n">
         <v>12.86782006433659</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>-549.2838851579127</v>
       </c>
     </row>
@@ -1333,12 +1461,15 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.01420632386642491</v>
+        <v>0.01420632386645162</v>
       </c>
       <c r="D43" t="n">
+        <v>4.169150161957026e-05</v>
+      </c>
+      <c r="E43" t="n">
         <v>0.003314211836495036</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>13.712840435719</v>
       </c>
     </row>
@@ -1354,12 +1485,15 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.120507849048053</v>
+        <v>-0.1205078490480518</v>
       </c>
       <c r="D44" t="n">
+        <v>2.761717397625488e-269</v>
+      </c>
+      <c r="E44" t="n">
         <v>-0.7765268413578499</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>282.7029716861202</v>
       </c>
     </row>
@@ -1375,12 +1509,15 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.1923339172906527</v>
+        <v>-0.1923339172906545</v>
       </c>
       <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
         <v>-0.009594273887230876</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>5.153087553207675</v>
       </c>
     </row>
@@ -1396,12 +1533,15 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.07225980421804232</v>
+        <v>0.07225980421800099</v>
       </c>
       <c r="D46" t="n">
+        <v>1.050689384391692e-97</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.01011321437338627</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>13.29773548721992</v>
       </c>
     </row>
@@ -1417,12 +1557,15 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.06892512731453658</v>
+        <v>-0.06892512731453196</v>
       </c>
       <c r="D47" t="n">
+        <v>5.864375808173109e-91</v>
+      </c>
+      <c r="E47" t="n">
         <v>-0.6748993573564348</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>197.0020425136257</v>
       </c>
     </row>
@@ -1438,12 +1581,15 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.1557182791754584</v>
+        <v>-0.1557182791754683</v>
       </c>
       <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
         <v>-0.006789233140648527</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>7.344413192722214</v>
       </c>
     </row>
@@ -1459,12 +1605,15 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0005558755370977388</v>
+        <v>0.0005558755370965297</v>
       </c>
       <c r="D49" t="n">
+        <v>0.8721968885911422</v>
+      </c>
+      <c r="E49" t="n">
         <v>0.0001629598340192895</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>6.802897571281886</v>
       </c>
     </row>
@@ -1480,12 +1629,15 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.002025982361938931</v>
+        <v>-0.002025982361938349</v>
       </c>
       <c r="D50" t="n">
+        <v>0.5543674696169858</v>
+      </c>
+      <c r="E50" t="n">
         <v>-0.001229606503498079</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>2.053466030078519</v>
       </c>
     </row>
@@ -1501,12 +1653,15 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.1490791623064964</v>
+        <v>0.149079162306515</v>
       </c>
       <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
         <v>0.192619562962182</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>17.41879761515477</v>
       </c>
     </row>
@@ -1522,12 +1677,15 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.1774433315629167</v>
+        <v>-0.1774433315629211</v>
       </c>
       <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
         <v>-249.7505605396257</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>65118.11748173366</v>
       </c>
     </row>
@@ -1543,12 +1701,15 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.02553163239775992</v>
+        <v>0.02553163239776538</v>
       </c>
       <c r="D53" t="n">
+        <v>7.769751181268058e-14</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.02177900333190679</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>2.637277357261869</v>
       </c>
     </row>
@@ -1564,12 +1725,15 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-0.01884699170566058</v>
+        <v>-0.01884699170565531</v>
       </c>
       <c r="D54" t="n">
+        <v>3.450661415579466e-08</v>
+      </c>
+      <c r="E54" t="n">
         <v>-0.8844420850832079</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>656.6778194235742</v>
       </c>
     </row>
@@ -1585,12 +1749,15 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.0361948256735977</v>
+        <v>0.03619482567359268</v>
       </c>
       <c r="D55" t="n">
+        <v>3.061723115270784e-26</v>
+      </c>
+      <c r="E55" t="n">
         <v>0.1902817002183827</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>-5.275625897150376</v>
       </c>
     </row>
@@ -1606,12 +1773,15 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.1001607007112492</v>
+        <v>0.1001607007112443</v>
       </c>
       <c r="D56" t="n">
+        <v>7.302156352520145e-190</v>
+      </c>
+      <c r="E56" t="n">
         <v>17.65474705368066</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>650.3893761870011</v>
       </c>
     </row>
@@ -1627,12 +1797,15 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-0.1675812426433292</v>
+        <v>-0.1675812426433441</v>
       </c>
       <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
         <v>-0.6381432341658745</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>146.7547631752119</v>
       </c>
     </row>
@@ -1648,12 +1821,15 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.03846419326275872</v>
+        <v>-0.03846419326276369</v>
       </c>
       <c r="D58" t="n">
+        <v>6.971370171586163e-22</v>
+      </c>
+      <c r="E58" t="n">
         <v>-0.002153839111230967</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>1.080048486560953</v>
       </c>
     </row>
@@ -1669,12 +1845,15 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.05333142866154557</v>
+        <v>0.05333142866151491</v>
       </c>
       <c r="D59" t="n">
+        <v>1.076756864502743e-42</v>
+      </c>
+      <c r="E59" t="n">
         <v>0.0302030363047232</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>11.0234770723454</v>
       </c>
     </row>
@@ -1690,12 +1869,15 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.1340744382595199</v>
+        <v>-0.1340744382595013</v>
       </c>
       <c r="D60" t="n">
+        <v>9.204170776223713e-285</v>
+      </c>
+      <c r="E60" t="n">
         <v>-133.0050205025993</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>45361.98913085846</v>
       </c>
     </row>
@@ -1711,12 +1893,15 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.001340451955998336</v>
+        <v>-0.001340451956005952</v>
       </c>
       <c r="D61" t="n">
+        <v>0.7196663352972019</v>
+      </c>
+      <c r="E61" t="n">
         <v>-0.008520984493131302</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>223.2475208239813</v>
       </c>
     </row>
@@ -1732,12 +1917,15 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.03013665729671946</v>
+        <v>0.03013665729671553</v>
       </c>
       <c r="D62" t="n">
+        <v>2.589112825673929e-17</v>
+      </c>
+      <c r="E62" t="n">
         <v>0.0001560952068203345</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>0.03991203342436558</v>
       </c>
     </row>
@@ -1753,12 +1941,15 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.03840797221631094</v>
+        <v>0.03840797221629957</v>
       </c>
       <c r="D63" t="n">
+        <v>3.982377709822146e-27</v>
+      </c>
+      <c r="E63" t="n">
         <v>0.0001226428752367146</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>0.0281268016609068</v>
       </c>
     </row>
@@ -1774,12 +1965,15 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.002127224649808049</v>
+        <v>-0.002127224649807127</v>
       </c>
       <c r="D64" t="n">
+        <v>0.5503765107787838</v>
+      </c>
+      <c r="E64" t="n">
         <v>-4.926362180919598e-06</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>0.007314201021798116</v>
       </c>
     </row>
@@ -1795,12 +1989,15 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.07496548592528894</v>
+        <v>0.07496548592529102</v>
       </c>
       <c r="D65" t="n">
+        <v>1.249795166923561e-98</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.001304798045599228</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>0.1414052689748612</v>
       </c>
     </row>
@@ -1816,12 +2013,15 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.01419765075338028</v>
+        <v>0.0141976507533782</v>
       </c>
       <c r="D66" t="n">
+        <v>6.712851861726489e-05</v>
+      </c>
+      <c r="E66" t="n">
         <v>3.396143280201276e-06</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>0.001438486536221058</v>
       </c>
     </row>
@@ -1837,12 +2037,15 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.072448918586455</v>
+        <v>0.0724489185864635</v>
       </c>
       <c r="D67" t="n">
+        <v>3.278358685592701e-92</v>
+      </c>
+      <c r="E67" t="n">
         <v>0.001213285722848037</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>0.1346753956127241</v>
       </c>
     </row>
@@ -1858,12 +2061,15 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.09632761271182781</v>
+        <v>0.09632761271183585</v>
       </c>
       <c r="D68" t="n">
+        <v>7.48263135863775e-162</v>
+      </c>
+      <c r="E68" t="n">
         <v>0.001452462002253909</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>0.09618971213198334</v>
       </c>
     </row>
@@ -1879,12 +2085,15 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.09285365039242173</v>
+        <v>0.09285365039243074</v>
       </c>
       <c r="D69" t="n">
+        <v>1.866442879957867e-150</v>
+      </c>
+      <c r="E69" t="n">
         <v>0.001327513370156605</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>0.09445791958971364</v>
       </c>
     </row>
@@ -1900,12 +2109,15 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.09302734649741082</v>
+        <v>0.09302734649742664</v>
       </c>
       <c r="D70" t="n">
+        <v>5.161261618014563e-151</v>
+      </c>
+      <c r="E70" t="n">
         <v>0.000140350151047103</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>-0.001796763482574764</v>
       </c>
     </row>
@@ -1921,12 +2133,15 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.02840238464852155</v>
+        <v>0.02840238464852094</v>
       </c>
       <c r="D71" t="n">
+        <v>7.205870567729194e-16</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.0003594988498379043</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>0.6880957727999504</v>
       </c>
     </row>
@@ -1942,12 +2157,15 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-0.05307128324402773</v>
+        <v>-0.05307128324403872</v>
       </c>
       <c r="D72" t="n">
+        <v>2.155030637112924e-51</v>
+      </c>
+      <c r="E72" t="n">
         <v>-0.0004927103377505005</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>0.1900419229985014</v>
       </c>
     </row>
@@ -1963,12 +2181,15 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.02911915887949984</v>
+        <v>-0.02911915887949597</v>
       </c>
       <c r="D73" t="n">
+        <v>1.327770430809838e-16</v>
+      </c>
+      <c r="E73" t="n">
         <v>-4.269288165235077e-05</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>0.01144683496335934</v>
       </c>
     </row>
@@ -1984,12 +2205,15 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.0008725773652107792</v>
+        <v>0.0008725773652116145</v>
       </c>
       <c r="D74" t="n">
+        <v>0.8042923366517751</v>
+      </c>
+      <c r="E74" t="n">
         <v>6.180722235361482e-06</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>0.9335038367553751</v>
       </c>
     </row>
@@ -2005,12 +2229,15 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-0.01220655437321263</v>
+        <v>-0.01220655437324625</v>
       </c>
       <c r="D75" t="n">
+        <v>0.0005271122704753208</v>
+      </c>
+      <c r="E75" t="n">
         <v>-9.976854551164628e-05</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>0.9598487131454656</v>
       </c>
     </row>
@@ -2026,12 +2253,15 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.09136638815314041</v>
+        <v>0.09136638815313421</v>
       </c>
       <c r="D76" t="n">
+        <v>4.834708633867382e-149</v>
+      </c>
+      <c r="E76" t="n">
         <v>0.0003773158031973903</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>0.01323547547065811</v>
       </c>
     </row>
@@ -2047,12 +2277,15 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.006917217564411377</v>
+        <v>0.006917217564410925</v>
       </c>
       <c r="D77" t="n">
+        <v>0.05031835932977233</v>
+      </c>
+      <c r="E77" t="n">
         <v>0.001391337974645468</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>0.0856630989265071</v>
       </c>
     </row>
@@ -2068,12 +2301,15 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-0.0432600415228803</v>
+        <v>-0.04326004152288009</v>
       </c>
       <c r="D78" t="n">
+        <v>3.524547136183776e-28</v>
+      </c>
+      <c r="E78" t="n">
         <v>-0.0001225069215572807</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>0.03601962450211695</v>
       </c>
     </row>
@@ -2089,12 +2325,15 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-0.2119696277916671</v>
+        <v>-0.2119696277916842</v>
       </c>
       <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
         <v>-0.004224441105123863</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>0.6348272069560381</v>
       </c>
     </row>
@@ -2110,12 +2349,15 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.1024415081219297</v>
+        <v>-0.1024415081219302</v>
       </c>
       <c r="D80" t="n">
+        <v>1.07688429777846e-185</v>
+      </c>
+      <c r="E80" t="n">
         <v>-0.002600404628060525</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>0.5276012298017028</v>
       </c>
     </row>
@@ -2131,12 +2373,15 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-0.06015786392220415</v>
+        <v>-0.06015786392220554</v>
       </c>
       <c r="D81" t="n">
+        <v>7.78888925504204e-65</v>
+      </c>
+      <c r="E81" t="n">
         <v>-0.0004177562608145416</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>0.06333628864670242</v>
       </c>
     </row>
@@ -2152,12 +2397,15 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-0.1921261457421249</v>
+        <v>-0.1921261457421043</v>
       </c>
       <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
         <v>-0.00902888151150982</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>1.573758610301486</v>
       </c>
     </row>
@@ -2173,12 +2421,15 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-0.01004859612301204</v>
+        <v>-0.01004859612301367</v>
       </c>
       <c r="D83" t="n">
+        <v>0.004510657207730113</v>
+      </c>
+      <c r="E83" t="n">
         <v>-0.0001050190267129745</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>0.02551938630635075</v>
       </c>
     </row>
@@ -2194,12 +2445,15 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.01350965974258601</v>
+        <v>0.0135096597425858</v>
       </c>
       <c r="D84" t="n">
+        <v>0.0001343567717559123</v>
+      </c>
+      <c r="E84" t="n">
         <v>0.00257209518215341</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>-0.1332679612518463</v>
       </c>
     </row>
@@ -2215,12 +2469,15 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-0.3376666592160403</v>
+        <v>-0.3376666592159998</v>
       </c>
       <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
         <v>-0.002266875783733433</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>0.2227049687084707</v>
       </c>
     </row>
@@ -2236,12 +2493,15 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>-0.0934984509039999</v>
+        <v>-0.09349845090401389</v>
       </c>
       <c r="D86" t="n">
+        <v>2.757382101424331e-154</v>
+      </c>
+      <c r="E86" t="n">
         <v>-0.00289044142932564</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>0.6269963102899572</v>
       </c>
     </row>
@@ -2257,12 +2517,15 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-0.199536950760617</v>
+        <v>-0.1995369507605997</v>
       </c>
       <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
         <v>-0.0124890012684225</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>2.259205163736752</v>
       </c>
     </row>
@@ -2278,12 +2541,15 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.1286200899908872</v>
+        <v>-0.1286200899908975</v>
       </c>
       <c r="D88" t="n">
+        <v>9.986798077864132e-292</v>
+      </c>
+      <c r="E88" t="n">
         <v>-0.001421071823106215</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>0.1910475215463762</v>
       </c>
     </row>
@@ -2302,9 +2568,12 @@
         <v>-0.08738752927013536</v>
       </c>
       <c r="D89" t="n">
+        <v>1.59195231823723e-138</v>
+      </c>
+      <c r="E89" t="n">
         <v>-0.000450938844491779</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>0.1001570343973549</v>
       </c>
     </row>
@@ -2320,12 +2589,15 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.02084180543081071</v>
+        <v>0.02084180543080508</v>
       </c>
       <c r="D90" t="n">
+        <v>2.454109307557365e-09</v>
+      </c>
+      <c r="E90" t="n">
         <v>0.0002413741612617782</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>0.2307208559191977</v>
       </c>
     </row>
@@ -2341,12 +2613,15 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-0.02402366439655552</v>
+        <v>-0.02402366439656436</v>
       </c>
       <c r="D91" t="n">
+        <v>6.185597235375173e-12</v>
+      </c>
+      <c r="E91" t="n">
         <v>-0.0003226783869676076</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>0.7028878378065704</v>
       </c>
     </row>
@@ -2362,12 +2637,15 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-0.1593361318864402</v>
+        <v>-0.1593361318864396</v>
       </c>
       <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
         <v>-0.002080532755590296</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>0.8398637559889838</v>
       </c>
     </row>
@@ -2383,12 +2661,15 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-0.06456844885609245</v>
+        <v>-0.06456844885609168</v>
       </c>
       <c r="D93" t="n">
+        <v>3.305448881965829e-76</v>
+      </c>
+      <c r="E93" t="n">
         <v>-0.001076716930680359</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>0.7235791034511548</v>
       </c>
     </row>
@@ -2404,12 +2685,15 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.09045349602894272</v>
+        <v>0.09045349602893227</v>
       </c>
       <c r="D94" t="n">
+        <v>7.079318739596338e-143</v>
+      </c>
+      <c r="E94" t="n">
         <v>0.000230745258160754</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>0.01953713849318233</v>
       </c>
     </row>
@@ -2425,12 +2709,15 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.1086854605674695</v>
+        <v>0.1086854605674715</v>
       </c>
       <c r="D95" t="n">
+        <v>9.69221881679501e-206</v>
+      </c>
+      <c r="E95" t="n">
         <v>0.00022664278391546</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>0.0137916553919509</v>
       </c>
     </row>
@@ -2446,12 +2733,15 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.04841064565129887</v>
+        <v>0.04841064565129788</v>
       </c>
       <c r="D96" t="n">
+        <v>3.960266141416331e-42</v>
+      </c>
+      <c r="E96" t="n">
         <v>2.836431856376842e-05</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>0.005802887928536679</v>
       </c>
     </row>
@@ -2467,12 +2757,15 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-0.01297420268104741</v>
+        <v>-0.01297420268102384</v>
       </c>
       <c r="D97" t="n">
+        <v>0.002754167866348624</v>
+      </c>
+      <c r="E97" t="n">
         <v>-0.001337743902560543</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>6.065661233099398</v>
       </c>
     </row>
@@ -2488,12 +2781,15 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.05495284299717688</v>
+        <v>0.05495284299717462</v>
       </c>
       <c r="D98" t="n">
+        <v>4.433628808364729e-39</v>
+      </c>
+      <c r="E98" t="n">
         <v>0.09803928042764645</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>47.63396210440602</v>
       </c>
     </row>
@@ -2509,12 +2805,15 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-0.08513796983190368</v>
+        <v>-0.08513796983190634</v>
       </c>
       <c r="D99" t="n">
+        <v>3.611032036414584e-93</v>
+      </c>
+      <c r="E99" t="n">
         <v>-0.3454108316613805</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>212.6427238802894</v>
       </c>
     </row>
@@ -2530,12 +2829,15 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-0.004849103281097581</v>
+        <v>-0.004849103281096873</v>
       </c>
       <c r="D100" t="n">
+        <v>0.2421777084683616</v>
+      </c>
+      <c r="E100" t="n">
         <v>-0.00196354460502789</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>3.553214367705153</v>
       </c>
     </row>
@@ -2551,12 +2853,15 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.2318765080575381</v>
+        <v>0.2318765080575449</v>
       </c>
       <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
         <v>0.01182309099747776</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>0.3163945216498909</v>
       </c>
     </row>
